--- a/JVM/JVM Plan.xlsx
+++ b/JVM/JVM Plan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCCA021-833F-4580-BC3B-C7ACFBED2006}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C204AE-2D11-462A-AAA1-831565126B83}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="420" windowWidth="25440" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -121,6 +121,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -178,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="12" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -188,6 +191,7 @@
     <xf numFmtId="12" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -474,14 +478,23 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="13" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -489,37 +502,37 @@
         <v>8</v>
       </c>
       <c r="B1" s="3"/>
-      <c r="C1" s="1">
+      <c r="C1" s="5">
         <v>43636</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="5">
         <v>43637</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="5">
         <v>43638</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="5">
         <v>43639</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="5">
         <v>43640</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="5">
         <v>43641</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="5">
         <v>43642</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" s="5">
         <v>43643</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1" s="5">
         <v>43644</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1" s="5">
         <v>43645</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M1" s="5">
         <v>43646</v>
       </c>
     </row>

--- a/JVM/JVM Plan.xlsx
+++ b/JVM/JVM Plan.xlsx
@@ -95,14 +95,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="#\ ?/?"/>
     <numFmt numFmtId="177" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,107 +111,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -223,6 +150,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -231,6 +209,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
@@ -238,31 +240,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -277,187 +270,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,6 +473,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -497,41 +508,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,171 +539,182 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1068,7 +1055,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
